--- a/model_templates/ark.BiospecimenMetadataTemplate.xlsx
+++ b/model_templates/ark.BiospecimenMetadataTemplate.xlsx
@@ -472,8 +472,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFE5"/>
-          <bgColor rgb="FFFFFFE5"/>
+          <fgColor rgb="FFEAF7F9"/>
+          <bgColor rgb="FFEAF7F9"/>
         </patternFill>
       </fill>
       <border/>
@@ -482,8 +482,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEAF7F9"/>
-          <bgColor rgb="FFEAF7F9"/>
+          <fgColor rgb="FFFFFFE5"/>
+          <bgColor rgb="FFFFFFE5"/>
         </patternFill>
       </fill>
       <border/>
@@ -27775,128 +27775,128 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="J1:J1000">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>$I1 = "flow-sorted cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>$I1 = "flow-sorted cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>$I1 = "flow-sorted cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+      <formula>$I1 = "flow-sorted cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+      <formula>$I1 = "cell suspension"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U1000">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$I1 = "cell suspension"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
-      <formula>$I1 = "flow-sorted cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
-      <formula>$I1 = "flow-sorted cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$I1 = "flow-sorted cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$I1 = "flow-sorted cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
-      <formula>$H1 = "saliva"</formula>
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
+      <formula>$H1 = "skin swab"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
-      <formula>$H1 = "suction blister cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="10" stopIfTrue="1">
-      <formula>$H1 = "suction blister cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
-      <formula>$H1 = "synovial fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="1" priority="12" stopIfTrue="1">
-      <formula>$H1 = "synovial fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
       <formula>$H1 = "skin swab"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="14" stopIfTrue="1">
-      <formula>$H1 = "skin swab"</formula>
+    <cfRule type="expression" dxfId="0" priority="10" stopIfTrue="1">
+      <formula>$H1 = "suction blister fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="15" stopIfTrue="1">
-      <formula>$H1 = "skin biopsy"</formula>
+    <cfRule type="expression" dxfId="0" priority="11" stopIfTrue="1">
+      <formula>$H1 = "suction blister fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="1" priority="12" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
-      <formula>$H1 = "skin biopsy"</formula>
+    <cfRule type="expression" dxfId="0" priority="13" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="P1:P1000">
+    <cfRule type="expression" dxfId="1" priority="14" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="1" priority="15" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:Q1000">
+    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T1000">
     <cfRule type="expression" dxfId="0" priority="17" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="18" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
+    <cfRule type="expression" dxfId="0" priority="18" stopIfTrue="1">
+      <formula>$H1 = "skin biopsy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S1000">
+    <cfRule type="expression" dxfId="0" priority="19" stopIfTrue="1">
+      <formula>$H1 = "skin biopsy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="0" priority="20" stopIfTrue="1">
+      <formula>$H1 = "saliva"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="0" priority="21" stopIfTrue="1">
+      <formula>$H1 = "suction blister cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S1000">
+    <cfRule type="expression" dxfId="0" priority="22" stopIfTrue="1">
+      <formula>$H1 = "suction blister cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="0" priority="23" stopIfTrue="1">
+      <formula>$H1 = "synovial fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="1" priority="19" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="0" priority="20" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="0" priority="21" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="22" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="23" stopIfTrue="1">
-      <formula>$H1 = "suction blister fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="24" stopIfTrue="1">
-      <formula>$H1 = "suction blister fluid"</formula>
+    <cfRule type="expression" dxfId="0" priority="24" stopIfTrue="1">
+      <formula>$H1 = "synovial fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1000">
-    <cfRule type="expression" dxfId="0" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="25" stopIfTrue="1">
       <formula>$B1 = "AMP RA/SLE"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model_templates/ark.BiospecimenMetadataTemplate.xlsx
+++ b/model_templates/ark.BiospecimenMetadataTemplate.xlsx
@@ -472,8 +472,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEAF7F9"/>
-          <bgColor rgb="FFEAF7F9"/>
+          <fgColor rgb="FFFFFFE5"/>
+          <bgColor rgb="FFFFFFE5"/>
         </patternFill>
       </fill>
       <border/>
@@ -482,8 +482,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFE5"/>
-          <bgColor rgb="FFFFFFE5"/>
+          <fgColor rgb="FFEAF7F9"/>
+          <bgColor rgb="FFEAF7F9"/>
         </patternFill>
       </fill>
       <border/>
@@ -27775,128 +27775,128 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1000">
+  <conditionalFormatting sqref="U1:U1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$I1 = "flow-sorted cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$I1 = "flow-sorted cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J1000">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>$I1 = "flow-sorted cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
-      <formula>$I1 = "flow-sorted cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
-      <formula>$I1 = "cell suspension"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+      <formula>$I1 = "cell suspension"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
-      <formula>$H1 = "skin swab"</formula>
+    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
+      <formula>$H1 = "synovial fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T1000">
+    <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
+      <formula>$H1 = "synovial fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="1" priority="10" stopIfTrue="1">
+      <formula>$H1 = "skin biopsy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
-      <formula>$H1 = "skin swab"</formula>
+    <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
+      <formula>$H1 = "skin biopsy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="0" priority="10" stopIfTrue="1">
-      <formula>$H1 = "suction blister fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="0" priority="11" stopIfTrue="1">
-      <formula>$H1 = "suction blister fluid"</formula>
+  <conditionalFormatting sqref="P1:P1000">
+    <cfRule type="expression" dxfId="0" priority="12" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="1" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="13" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="14" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="0" priority="13" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="1" priority="14" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="1" priority="15" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="16" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="0" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="0" priority="18" stopIfTrue="1">
-      <formula>$H1 = "skin biopsy"</formula>
+    <cfRule type="expression" dxfId="1" priority="18" stopIfTrue="1">
+      <formula>$H1 = "skin swab"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="0" priority="19" stopIfTrue="1">
-      <formula>$H1 = "skin biopsy"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="0" priority="20" stopIfTrue="1">
-      <formula>$H1 = "saliva"</formula>
+    <cfRule type="expression" dxfId="1" priority="19" stopIfTrue="1">
+      <formula>$H1 = "skin swab"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="0" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="20" stopIfTrue="1">
       <formula>$H1 = "suction blister cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="0" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="21" stopIfTrue="1">
       <formula>$H1 = "suction blister cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="0" priority="23" stopIfTrue="1">
-      <formula>$H1 = "synovial fluid"</formula>
+    <cfRule type="expression" dxfId="1" priority="22" stopIfTrue="1">
+      <formula>$H1 = "suction blister fluid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="0" priority="24" stopIfTrue="1">
-      <formula>$H1 = "synovial fluid"</formula>
+  <conditionalFormatting sqref="S1:S1000">
+    <cfRule type="expression" dxfId="1" priority="23" stopIfTrue="1">
+      <formula>$H1 = "suction blister fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="24" stopIfTrue="1">
+      <formula>$H1 = "saliva"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1000">
-    <cfRule type="expression" dxfId="1" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="25" stopIfTrue="1">
       <formula>$B1 = "AMP RA/SLE"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model_templates/ark.BiospecimenMetadataTemplate.xlsx
+++ b/model_templates/ark.BiospecimenMetadataTemplate.xlsx
@@ -27775,124 +27775,124 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>$I1 = "cell suspension"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$I1 = "cell suspension"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>$I1 = "flow-sorted cells"</formula>
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+      <formula>$I1 = "flow-sorted cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U1000">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
-      <formula>$I1 = "cell suspension"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$I1 = "cell suspension"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1000">
     <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
-      <formula>$H1 = "synovial fluid"</formula>
+      <formula>$H1 = "skin biopsy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S1000">
+    <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
+      <formula>$H1 = "skin biopsy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="1" priority="10" stopIfTrue="1">
+      <formula>$H1 = "skin swab"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S1000">
+    <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
+      <formula>$H1 = "skin swab"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="12" stopIfTrue="1">
+      <formula>$H1 = "saliva"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="13" stopIfTrue="1">
       <formula>$H1 = "synovial fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="10" stopIfTrue="1">
-      <formula>$H1 = "skin biopsy"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
-      <formula>$H1 = "skin biopsy"</formula>
+    <cfRule type="expression" dxfId="1" priority="14" stopIfTrue="1">
+      <formula>$H1 = "synovial fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="0" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="15" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="16" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="17" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="14" stopIfTrue="1">
+  <conditionalFormatting sqref="T1:T1000">
+    <cfRule type="expression" dxfId="1" priority="18" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:Q1000">
+    <cfRule type="expression" dxfId="0" priority="19" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="15" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="0" priority="16" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="20" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="18" stopIfTrue="1">
-      <formula>$H1 = "skin swab"</formula>
+    <cfRule type="expression" dxfId="1" priority="21" stopIfTrue="1">
+      <formula>$H1 = "suction blister fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="19" stopIfTrue="1">
-      <formula>$H1 = "skin swab"</formula>
+    <cfRule type="expression" dxfId="1" priority="22" stopIfTrue="1">
+      <formula>$H1 = "suction blister fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="23" stopIfTrue="1">
       <formula>$H1 = "suction blister cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="24" stopIfTrue="1">
       <formula>$H1 = "suction blister cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="22" stopIfTrue="1">
-      <formula>$H1 = "suction blister fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="23" stopIfTrue="1">
-      <formula>$H1 = "suction blister fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="24" stopIfTrue="1">
-      <formula>$H1 = "saliva"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1000">

--- a/model_templates/ark.BiospecimenMetadataTemplate.xlsx
+++ b/model_templates/ark.BiospecimenMetadataTemplate.xlsx
@@ -472,8 +472,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFE5"/>
-          <bgColor rgb="FFFFFFE5"/>
+          <fgColor rgb="FFEAF7F9"/>
+          <bgColor rgb="FFEAF7F9"/>
         </patternFill>
       </fill>
       <border/>
@@ -482,8 +482,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEAF7F9"/>
-          <bgColor rgb="FFEAF7F9"/>
+          <fgColor rgb="FFFFFFE5"/>
+          <bgColor rgb="FFFFFFE5"/>
         </patternFill>
       </fill>
       <border/>
@@ -27775,128 +27775,128 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="J1:J1000">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>$I1 = "flow-sorted cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U1000">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>$I1 = "flow-sorted cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>$I1 = "flow-sorted cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+      <formula>$I1 = "flow-sorted cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+      <formula>$I1 = "cell suspension"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U1000">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$I1 = "cell suspension"</formula>
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
+      <formula>$H1 = "suction blister cells"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
-      <formula>$I1 = "flow-sorted cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
-      <formula>$I1 = "flow-sorted cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$I1 = "flow-sorted cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1000">
-    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
-      <formula>$I1 = "flow-sorted cells"</formula>
+  <conditionalFormatting sqref="S1:S1000">
+    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
+      <formula>$H1 = "suction blister cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="10" stopIfTrue="1">
+      <formula>$H1 = "skin swab"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S1000">
+    <cfRule type="expression" dxfId="0" priority="11" stopIfTrue="1">
+      <formula>$H1 = "skin swab"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P1000">
+    <cfRule type="expression" dxfId="1" priority="12" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="1" priority="13" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:Q1000">
+    <cfRule type="expression" dxfId="1" priority="14" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="1" priority="15" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="0" priority="16" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T1000">
+    <cfRule type="expression" dxfId="0" priority="17" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="0" priority="18" stopIfTrue="1">
+      <formula>$H1 = "suction blister fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S1000">
+    <cfRule type="expression" dxfId="0" priority="19" stopIfTrue="1">
+      <formula>$H1 = "suction blister fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="0" priority="20" stopIfTrue="1">
+      <formula>$H1 = "synovial fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T1000">
+    <cfRule type="expression" dxfId="0" priority="21" stopIfTrue="1">
+      <formula>$H1 = "synovial fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="0" priority="22" stopIfTrue="1">
       <formula>$H1 = "skin biopsy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="23" stopIfTrue="1">
       <formula>$H1 = "skin biopsy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="10" stopIfTrue="1">
-      <formula>$H1 = "skin swab"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
-      <formula>$H1 = "skin swab"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="24" stopIfTrue="1">
       <formula>$H1 = "saliva"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="1" priority="13" stopIfTrue="1">
-      <formula>$H1 = "synovial fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="14" stopIfTrue="1">
-      <formula>$H1 = "synovial fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="0" priority="15" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="16" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="17" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="1" priority="18" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="0" priority="19" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="20" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="21" stopIfTrue="1">
-      <formula>$H1 = "suction blister fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="22" stopIfTrue="1">
-      <formula>$H1 = "suction blister fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="23" stopIfTrue="1">
-      <formula>$H1 = "suction blister cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="24" stopIfTrue="1">
-      <formula>$H1 = "suction blister cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1000">
-    <cfRule type="expression" dxfId="0" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="25" stopIfTrue="1">
       <formula>$B1 = "AMP RA/SLE"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model_templates/ark.BiospecimenMetadataTemplate.xlsx
+++ b/model_templates/ark.BiospecimenMetadataTemplate.xlsx
@@ -84,22 +84,22 @@
     </comment>
     <comment authorId="0" ref="N1">
       <text>
-        <t xml:space="preserve">A standardized, semi-quantitative measure of the degree of inflammatory infiltrate in synovial specimen. This is one of three measures used to derive the Krenn Synovitis Score (KSS) which is a histological scoring system used to quantify inflammation in synovial tissue biopsies, particularly in the context of inflammatory arthritis like rheumatoid arthritis.</t>
+        <t xml:space="preserve">A standardized, semi-quantitative measure of the degree of inflammatory infiltrate in synovial specimen. This is one of three measures used to derive the Krenn Synovitis Score (KSS) which is a histological scoring system used to quantify inflammation in synovial tissue biopsies, particularly in the context of inflammatory arthritis like rheumatoid arthritis. If value unknown, use '-1'.</t>
       </text>
     </comment>
     <comment authorId="0" ref="O1">
       <text>
-        <t xml:space="preserve">A standardized, semi-quantitative measure of the degree of hyperplasia/enlargement of the synovial lining layer of synovial specimen. This is one of three measures used to derive the Krenn Synovitis Score (KSS) which is a histological scoring system used to quantify inflammation in synovial tissue biopsies, particularly in the context of inflammatory arthritis like rheumatoid arthritis.</t>
+        <t xml:space="preserve">A standardized, semi-quantitative measure of the degree of hyperplasia/enlargement of the synovial lining layer of synovial specimen. This is one of three measures used to derive the Krenn Synovitis Score (KSS) which is a histological scoring system used to quantify inflammation in synovial tissue biopsies, particularly in the context of inflammatory arthritis like rheumatoid arthritis. If value unknown, use '-1'.</t>
       </text>
     </comment>
     <comment authorId="0" ref="P1">
       <text>
-        <t xml:space="preserve">A standardized, semi-quantitative measure of stromal cell density of synovial specimen. This is one of three measures used to derive the Krenn Synovitis Score (KSS) which is a histological scoring system used to quantify inflammation in synovial tissue biopsies, particularly in the context of inflammatory arthritis like rheumatoid arthritis.</t>
+        <t xml:space="preserve">A standardized, semi-quantitative measure of stromal cell density of synovial specimen. This is one of three measures used to derive the Krenn Synovitis Score (KSS) which is a histological scoring system used to quantify inflammation in synovial tissue biopsies, particularly in the context of inflammatory arthritis like rheumatoid arthritis. If value unknown, use '-1'.</t>
       </text>
     </comment>
     <comment authorId="0" ref="Q1">
       <text>
-        <t xml:space="preserve">The Krenn Synovitis Score (KSS) is a histological scoring system used to quantify inflammation in synovial tissue biopsies, particularly in the context of inflammatory arthritis like rheumatoid arthritis.</t>
+        <t xml:space="preserve">The Krenn Synovitis Score (KSS) is a histological scoring system used to quantify inflammation in synovial tissue biopsies, particularly in the context of inflammatory arthritis like rheumatoid arthritis. If value unknown, use '-1'.</t>
       </text>
     </comment>
     <comment authorId="0" ref="R1">
@@ -120,6 +120,5001 @@
     <comment authorId="0" ref="U1">
       <text>
         <t xml:space="preserve">User-defined label of a cell type. Contributors are provided this option to use preferred or custom cell type labels that may vary from options and standards set by Cell Ontology.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C2">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C3">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C4">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C5">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C6">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C7">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C8">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C9">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C10">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C11">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C12">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C13">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C14">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C15">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C16">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C17">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C18">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C19">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C20">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C21">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C22">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C23">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C24">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C25">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C26">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C27">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C28">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C29">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C30">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C31">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C32">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C33">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C34">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C35">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C36">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C37">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C38">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C39">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C40">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C41">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C42">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C43">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C44">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C45">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C46">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C47">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C48">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C49">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C50">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C51">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C52">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C53">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C54">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C55">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C56">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C57">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C58">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C59">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C60">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C61">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C62">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C63">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C64">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C65">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C66">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C67">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C68">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C69">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C70">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C71">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C72">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C73">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C74">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C75">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C76">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C77">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C78">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C79">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C80">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C81">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C82">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C83">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C84">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C85">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C86">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C87">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C88">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C89">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C90">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C91">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C92">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C93">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C94">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C95">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C96">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C97">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C98">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C99">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C100">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C101">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C102">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C103">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C104">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C105">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C106">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C107">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C108">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C109">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C110">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C111">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C112">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C113">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C114">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C115">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C116">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C117">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C118">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C119">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C120">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C121">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C122">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C123">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C124">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C125">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C126">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C127">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C128">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C129">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C130">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C131">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C132">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C133">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C134">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C135">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C136">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C137">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C138">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C139">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C140">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C141">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C142">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C143">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C144">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C145">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C146">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C147">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C148">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C149">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C150">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C151">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C152">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C153">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C154">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C155">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C156">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C157">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C158">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C159">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C160">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C161">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C162">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C163">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C164">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C165">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C166">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C167">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C168">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C169">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C170">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C171">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C172">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C173">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C174">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C175">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C176">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C177">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C178">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C179">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C180">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C181">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C182">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C183">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C184">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C185">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C186">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C187">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C188">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C189">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C190">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C191">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C192">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C193">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C194">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C195">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C196">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C197">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C198">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C199">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C200">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C201">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C202">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C203">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C204">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C205">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C206">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C207">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C208">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C209">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C210">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C211">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C212">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C213">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C214">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C215">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C216">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C217">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C218">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C219">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C220">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C221">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C222">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C223">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C224">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C225">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C226">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C227">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C228">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C229">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C230">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C231">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C232">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C233">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C234">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C235">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C236">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C237">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C238">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C239">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C240">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C241">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C242">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C243">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C244">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C245">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C246">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C247">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C248">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C249">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C250">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C251">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C252">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C253">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C254">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C255">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C256">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C257">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C258">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C259">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C260">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C261">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C262">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C263">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C264">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C265">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C266">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C267">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C268">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C269">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C270">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C271">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C272">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C273">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C274">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C275">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C276">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C277">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C278">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C279">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C280">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C281">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C282">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C283">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C284">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C285">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C286">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C287">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C288">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C289">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C290">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C291">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C292">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C293">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C294">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C295">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C296">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C297">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C298">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C299">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C300">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C301">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C302">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C303">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C304">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C305">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C306">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C307">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C308">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C309">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C310">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C311">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C312">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C313">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C314">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C315">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C316">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C317">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C318">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C319">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C320">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C321">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C322">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C323">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C324">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C325">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C326">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C327">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C328">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C329">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C330">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C331">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C332">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C333">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C334">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C335">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C336">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C337">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C338">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C339">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C340">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C341">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C342">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C343">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C344">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C345">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C346">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C347">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C348">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C349">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C350">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C351">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C352">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C353">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C354">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C355">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C356">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C357">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C358">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C359">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C360">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C361">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C362">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C363">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C364">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C365">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C366">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C367">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C368">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C369">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C370">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C371">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C372">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C373">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C374">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C375">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C376">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C377">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C378">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C379">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C380">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C381">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C382">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C383">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C384">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C385">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C386">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C387">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C388">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C389">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C390">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C391">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C392">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C393">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C394">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C395">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C396">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C397">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C398">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C399">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C400">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C401">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C402">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C403">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C404">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C405">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C406">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C407">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C408">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C409">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C410">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C411">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C412">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C413">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C414">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C415">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C416">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C417">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C418">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C419">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C420">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C421">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C422">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C423">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C424">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C425">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C426">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C427">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C428">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C429">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C430">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C431">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C432">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C433">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C434">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C435">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C436">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C437">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C438">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C439">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C440">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C441">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C442">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C443">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C444">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C445">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C446">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C447">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C448">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C449">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C450">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C451">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C452">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C453">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C454">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C455">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C456">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C457">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C458">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C459">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C460">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C461">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C462">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C463">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C464">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C465">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C466">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C467">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C468">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C469">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C470">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C471">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C472">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C473">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C474">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C475">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C476">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C477">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C478">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C479">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C480">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C481">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C482">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C483">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C484">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C485">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C486">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C487">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C488">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C489">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C490">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C491">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C492">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C493">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C494">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C495">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C496">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C497">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C498">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C499">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C500">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C501">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C502">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C503">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C504">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C505">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C506">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C507">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C508">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C509">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C510">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C511">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C512">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C513">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C514">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C515">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C516">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C517">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C518">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C519">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C520">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C521">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C522">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C523">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C524">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C525">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C526">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C527">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C528">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C529">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C530">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C531">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C532">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C533">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C534">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C535">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C536">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C537">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C538">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C539">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C540">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C541">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C542">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C543">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C544">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C545">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C546">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C547">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C548">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C549">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C550">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C551">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C552">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C553">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C554">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C555">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C556">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C557">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C558">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C559">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C560">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C561">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C562">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C563">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C564">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C565">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C566">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C567">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C568">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C569">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C570">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C571">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C572">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C573">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C574">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C575">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C576">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C577">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C578">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C579">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C580">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C581">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C582">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C583">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C584">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C585">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C586">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C587">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C588">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C589">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C590">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C591">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C592">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C593">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C594">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C595">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C596">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C597">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C598">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C599">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C600">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C601">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C602">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C603">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C604">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C605">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C606">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C607">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C608">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C609">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C610">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C611">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C612">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C613">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C614">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C615">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C616">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C617">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C618">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C619">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C620">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C621">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C622">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C623">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C624">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C625">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C626">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C627">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C628">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C629">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C630">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C631">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C632">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C633">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C634">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C635">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C636">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C637">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C638">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C639">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C640">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C641">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C642">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C643">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C644">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C645">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C646">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C647">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C648">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C649">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C650">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C651">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C652">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C653">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C654">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C655">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C656">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C657">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C658">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C659">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C660">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C661">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C662">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C663">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C664">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C665">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C666">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C667">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C668">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C669">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C670">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C671">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C672">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C673">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C674">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C675">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C676">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C677">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C678">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C679">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C680">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C681">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C682">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C683">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C684">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C685">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C686">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C687">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C688">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C689">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C690">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C691">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C692">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C693">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C694">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C695">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C696">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C697">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C698">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C699">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C700">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C701">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C702">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C703">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C704">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C705">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C706">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C707">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C708">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C709">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C710">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C711">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C712">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C713">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C714">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C715">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C716">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C717">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C718">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C719">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C720">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C721">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C722">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C723">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C724">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C725">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C726">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C727">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C728">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C729">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C730">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C731">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C732">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C733">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C734">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C735">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C736">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C737">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C738">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C739">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C740">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C741">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C742">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C743">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C744">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C745">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C746">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C747">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C748">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C749">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C750">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C751">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C752">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C753">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C754">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C755">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C756">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C757">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C758">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C759">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C760">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C761">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C762">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C763">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C764">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C765">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C766">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C767">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C768">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C769">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C770">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C771">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C772">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C773">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C774">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C775">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C776">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C777">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C778">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C779">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C780">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C781">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C782">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C783">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C784">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C785">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C786">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C787">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C788">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C789">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C790">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C791">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C792">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C793">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C794">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C795">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C796">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C797">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C798">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C799">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C800">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C801">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C802">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C803">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C804">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C805">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C806">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C807">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C808">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C809">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C810">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C811">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C812">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C813">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C814">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C815">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C816">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C817">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C818">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C819">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C820">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C821">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C822">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C823">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C824">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C825">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C826">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C827">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C828">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C829">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C830">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C831">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C832">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C833">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C834">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C835">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C836">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C837">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C838">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C839">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C840">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C841">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C842">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C843">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C844">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C845">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C846">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C847">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C848">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C849">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C850">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C851">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C852">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C853">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C854">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C855">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C856">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C857">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C858">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C859">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C860">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C861">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C862">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C863">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C864">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C865">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C866">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C867">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C868">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C869">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C870">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C871">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C872">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C873">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C874">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C875">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C876">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C877">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C878">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C879">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C880">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C881">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C882">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C883">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C884">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C885">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C886">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C887">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C888">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C889">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C890">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C891">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C892">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C893">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C894">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C895">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C896">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C897">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C898">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C899">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C900">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C901">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C902">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C903">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C904">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C905">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C906">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C907">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C908">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C909">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C910">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C911">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C912">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C913">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C914">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C915">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C916">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C917">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C918">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C919">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C920">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C921">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C922">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C923">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C924">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C925">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C926">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C927">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C928">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C929">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C930">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C931">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C932">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C933">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C934">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C935">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C936">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C937">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C938">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C939">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C940">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C941">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C942">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C943">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C944">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C945">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C946">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C947">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C948">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C949">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C950">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C951">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C952">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C953">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C954">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C955">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C956">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C957">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C958">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C959">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C960">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C961">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C962">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C963">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C964">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C965">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C966">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C967">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C968">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C969">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C970">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C971">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C972">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C973">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C974">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C975">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C976">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C977">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C978">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C979">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C980">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C981">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C982">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C983">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C984">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C985">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C986">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C987">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C988">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C989">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C990">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C991">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C992">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C993">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C994">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C995">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C996">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C997">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C998">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C999">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C1000">
+      <text>
+        <t xml:space="preserve">Please enter applicable comma-separated items selected from the set of allowable terms for this attribute. See our data standards for allowable terms</t>
       </text>
     </comment>
   </commentList>
@@ -472,8 +5467,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEAF7F9"/>
-          <bgColor rgb="FFEAF7F9"/>
+          <fgColor rgb="FFFFFFE5"/>
+          <bgColor rgb="FFFFFFE5"/>
         </patternFill>
       </fill>
       <border/>
@@ -482,8 +5477,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFE5"/>
-          <bgColor rgb="FFFFFFE5"/>
+          <fgColor rgb="FFEAF7F9"/>
+          <bgColor rgb="FFEAF7F9"/>
         </patternFill>
       </fill>
       <border/>
@@ -27775,128 +32770,128 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1000">
+  <conditionalFormatting sqref="U1:U1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$I1 = "flow-sorted cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
-      <formula>$I1 = "flow-sorted cells"</formula>
+  <conditionalFormatting sqref="U1:U1000">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+      <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
-      <formula>$I1 = "cell suspension"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
+      <formula>$H1 = "suction blister fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S1000">
+    <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
+      <formula>$H1 = "suction blister fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="1" priority="10" stopIfTrue="1">
+      <formula>$H1 = "skin biopsy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S1000">
+    <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
+      <formula>$H1 = "skin biopsy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="1" priority="12" stopIfTrue="1">
+      <formula>$H1 = "skin swab"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S1000">
+    <cfRule type="expression" dxfId="1" priority="13" stopIfTrue="1">
+      <formula>$H1 = "skin swab"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P1000">
+    <cfRule type="expression" dxfId="0" priority="14" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="1" priority="15" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:Q1000">
+    <cfRule type="expression" dxfId="0" priority="16" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="17" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T1000">
+    <cfRule type="expression" dxfId="1" priority="18" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="19" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="1" priority="20" stopIfTrue="1">
+      <formula>$H1 = "synovial fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T1000">
+    <cfRule type="expression" dxfId="1" priority="21" stopIfTrue="1">
+      <formula>$H1 = "synovial fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="22" stopIfTrue="1">
+      <formula>$H1 = "saliva"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="1" priority="23" stopIfTrue="1">
       <formula>$H1 = "suction blister cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="24" stopIfTrue="1">
       <formula>$H1 = "suction blister cells"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="0" priority="10" stopIfTrue="1">
-      <formula>$H1 = "skin swab"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="0" priority="11" stopIfTrue="1">
-      <formula>$H1 = "skin swab"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="1" priority="12" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="1" priority="13" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="1" priority="14" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="1" priority="15" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="0" priority="16" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="0" priority="17" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="0" priority="18" stopIfTrue="1">
-      <formula>$H1 = "suction blister fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="0" priority="19" stopIfTrue="1">
-      <formula>$H1 = "suction blister fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="0" priority="20" stopIfTrue="1">
-      <formula>$H1 = "synovial fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="0" priority="21" stopIfTrue="1">
-      <formula>$H1 = "synovial fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="0" priority="22" stopIfTrue="1">
-      <formula>$H1 = "skin biopsy"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="0" priority="23" stopIfTrue="1">
-      <formula>$H1 = "skin biopsy"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="0" priority="24" stopIfTrue="1">
-      <formula>$H1 = "saliva"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1000">
-    <cfRule type="expression" dxfId="1" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="25" stopIfTrue="1">
       <formula>$B1 = "AMP RA/SLE"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27918,9 +32913,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="H2:H1000">
       <formula1>Sheet2!$H$2:$H$20</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="C2:C1000">
-      <formula1>Sheet2!$C$2:$C$8</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="S2:S1000">
       <formula1>Sheet2!$S$2:$S$5</formula1>

--- a/model_templates/ark.BiospecimenMetadataTemplate.xlsx
+++ b/model_templates/ark.BiospecimenMetadataTemplate.xlsx
@@ -32770,39 +32770,39 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>$I1 = "cell suspension"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$I1 = "cell suspension"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$I1 = "cell suspension"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J1000">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="U1:U1000">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
-      <formula>$I1 = "cell suspension"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$I1 = "cell suspension"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1000">
@@ -32817,77 +32817,77 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1000">
     <cfRule type="expression" dxfId="1" priority="10" stopIfTrue="1">
+      <formula>$H1 = "suction blister cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S1000">
+    <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
+      <formula>$H1 = "suction blister cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="12" stopIfTrue="1">
+      <formula>$H1 = "saliva"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="1" priority="13" stopIfTrue="1">
       <formula>$H1 = "skin biopsy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="14" stopIfTrue="1">
       <formula>$H1 = "skin biopsy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="15" stopIfTrue="1">
       <formula>$H1 = "skin swab"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
       <formula>$H1 = "skin swab"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="17" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:Q1000">
+    <cfRule type="expression" dxfId="0" priority="18" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T1000">
+    <cfRule type="expression" dxfId="1" priority="19" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="0" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="20" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="15" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="0" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="21" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="17" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="1" priority="18" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="22" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="23" stopIfTrue="1">
       <formula>$H1 = "synovial fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="1" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="24" stopIfTrue="1">
       <formula>$H1 = "synovial fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="22" stopIfTrue="1">
-      <formula>$H1 = "saliva"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="23" stopIfTrue="1">
-      <formula>$H1 = "suction blister cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="24" stopIfTrue="1">
-      <formula>$H1 = "suction blister cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1000">

--- a/model_templates/ark.BiospecimenMetadataTemplate.xlsx
+++ b/model_templates/ark.BiospecimenMetadataTemplate.xlsx
@@ -32772,17 +32772,17 @@
   </sheetData>
   <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>$I1 = "cell suspension"</formula>
+      <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$I1 = "cell suspension"</formula>
+      <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$I1 = "cell suspension"</formula>
+      <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1000">
@@ -32792,37 +32792,37 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
-      <formula>$I1 = "flow-sorted cells"</formula>
+      <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1000">
     <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$I1 = "flow-sorted cells"</formula>
+      <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$I1 = "flow-sorted cells"</formula>
+      <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1000">
     <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
+      <formula>$H1 = "skin swab"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S1000">
+    <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
+      <formula>$H1 = "skin swab"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="1" priority="10" stopIfTrue="1">
       <formula>$H1 = "suction blister fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
       <formula>$H1 = "suction blister fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="10" stopIfTrue="1">
-      <formula>$H1 = "suction blister cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
-      <formula>$H1 = "suction blister cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
@@ -32840,24 +32840,24 @@
       <formula>$H1 = "skin biopsy"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T1000">
+    <cfRule type="expression" dxfId="1" priority="15" stopIfTrue="1">
+      <formula>$H1 = "synovial fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="15" stopIfTrue="1">
-      <formula>$H1 = "skin swab"</formula>
+    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
+      <formula>$H1 = "synovial fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
+      <formula>$H1 = "suction blister cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
-      <formula>$H1 = "skin swab"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="17" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="0" priority="18" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
+    <cfRule type="expression" dxfId="1" priority="18" stopIfTrue="1">
+      <formula>$H1 = "suction blister cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1000">
@@ -32865,29 +32865,29 @@
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="0" priority="20" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="20" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="21" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P1000">
     <cfRule type="expression" dxfId="0" priority="22" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="23" stopIfTrue="1">
-      <formula>$H1 = "synovial fluid"</formula>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="23" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="1" priority="24" stopIfTrue="1">
-      <formula>$H1 = "synovial fluid"</formula>
+  <conditionalFormatting sqref="Q1:Q1000">
+    <cfRule type="expression" dxfId="0" priority="24" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1000">

--- a/model_templates/ark.BiospecimenMetadataTemplate.xlsx
+++ b/model_templates/ark.BiospecimenMetadataTemplate.xlsx
@@ -32770,19 +32770,19 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>$I1 = "cell suspension"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>$I1 = "flow-sorted cells"</formula>
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$I1 = "flow-sorted cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$I1 = "flow-sorted cells"</formula>
+      <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1000">
@@ -32792,102 +32792,102 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
-      <formula>$I1 = "cell suspension"</formula>
+      <formula>$I1 = "flow-sorted cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+      <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$I1 = "cell suspension"</formula>
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
+      <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$I1 = "cell suspension"</formula>
+  <conditionalFormatting sqref="S1:S1000">
+    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
+      <formula>$H1 = "suction blister cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
-      <formula>$H1 = "skin swab"</formula>
+    <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
+      <formula>$H1 = "suction blister cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="10" stopIfTrue="1">
       <formula>$H1 = "skin swab"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
+      <formula>$H1 = "skin swab"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P1000">
+    <cfRule type="expression" dxfId="0" priority="12" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="13" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="14" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:Q1000">
+    <cfRule type="expression" dxfId="0" priority="15" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T1000">
+    <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S1000">
+    <cfRule type="expression" dxfId="1" priority="18" stopIfTrue="1">
+      <formula>$H1 = "skin biopsy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="1" priority="19" stopIfTrue="1">
+      <formula>$H1 = "skin biopsy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="20" stopIfTrue="1">
+      <formula>$H1 = "saliva"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S1000">
+    <cfRule type="expression" dxfId="1" priority="21" stopIfTrue="1">
       <formula>$H1 = "suction blister fluid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="1" priority="22" stopIfTrue="1">
       <formula>$H1 = "suction blister fluid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="12" stopIfTrue="1">
-      <formula>$H1 = "saliva"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="13" stopIfTrue="1">
-      <formula>$H1 = "skin biopsy"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="14" stopIfTrue="1">
-      <formula>$H1 = "skin biopsy"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="1" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="23" stopIfTrue="1">
       <formula>$H1 = "synovial fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="24" stopIfTrue="1">
       <formula>$H1 = "synovial fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
-      <formula>$H1 = "suction blister cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="18" stopIfTrue="1">
-      <formula>$H1 = "suction blister cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="1" priority="19" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="20" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="21" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="0" priority="22" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="23" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="0" priority="24" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1000">

--- a/model_templates/ark.BiospecimenMetadataTemplate.xlsx
+++ b/model_templates/ark.BiospecimenMetadataTemplate.xlsx
@@ -32785,79 +32785,79 @@
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+      <formula>$I1 = "flow-sorted cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+      <formula>$I1 = "flow-sorted cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U1000">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
-      <formula>$I1 = "flow-sorted cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$I1 = "flow-sorted cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
+  <conditionalFormatting sqref="R1:R1000">
     <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
-      <formula>$H1 = "suction blister cells"</formula>
+      <formula>$H1 = "saliva"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1000">
     <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="10" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:Q1000">
+    <cfRule type="expression" dxfId="0" priority="11" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T1000">
+    <cfRule type="expression" dxfId="1" priority="12" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P1000">
+    <cfRule type="expression" dxfId="0" priority="13" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="14" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="1" priority="15" stopIfTrue="1">
+      <formula>$H1 = "synovial fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T1000">
+    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
+      <formula>$H1 = "synovial fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
       <formula>$H1 = "suction blister cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="10" stopIfTrue="1">
-      <formula>$H1 = "skin swab"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
-      <formula>$H1 = "skin swab"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="0" priority="12" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="13" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="14" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="0" priority="15" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
     <cfRule type="expression" dxfId="1" priority="18" stopIfTrue="1">
-      <formula>$H1 = "skin biopsy"</formula>
+      <formula>$H1 = "suction blister cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1000">
@@ -32865,29 +32865,29 @@
       <formula>$H1 = "skin biopsy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
+  <conditionalFormatting sqref="S1:S1000">
     <cfRule type="expression" dxfId="1" priority="20" stopIfTrue="1">
-      <formula>$H1 = "saliva"</formula>
+      <formula>$H1 = "skin biopsy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
+  <conditionalFormatting sqref="K1:K1000">
     <cfRule type="expression" dxfId="1" priority="21" stopIfTrue="1">
       <formula>$H1 = "suction blister fluid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
+  <conditionalFormatting sqref="S1:S1000">
     <cfRule type="expression" dxfId="1" priority="22" stopIfTrue="1">
       <formula>$H1 = "suction blister fluid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
+  <conditionalFormatting sqref="K1:K1000">
     <cfRule type="expression" dxfId="1" priority="23" stopIfTrue="1">
-      <formula>$H1 = "synovial fluid"</formula>
+      <formula>$H1 = "skin swab"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
+  <conditionalFormatting sqref="S1:S1000">
     <cfRule type="expression" dxfId="1" priority="24" stopIfTrue="1">
-      <formula>$H1 = "synovial fluid"</formula>
+      <formula>$H1 = "skin swab"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1000">

--- a/model_templates/ark.BiospecimenMetadataTemplate.xlsx
+++ b/model_templates/ark.BiospecimenMetadataTemplate.xlsx
@@ -32790,104 +32790,104 @@
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+      <formula>$I1 = "flow-sorted cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$I1 = "flow-sorted cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
+      <formula>$H1 = "skin swab"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S1000">
+    <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
+      <formula>$H1 = "skin swab"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="1" priority="10" stopIfTrue="1">
+      <formula>$H1 = "suction blister cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S1000">
+    <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
+      <formula>$H1 = "suction blister cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="1" priority="12" stopIfTrue="1">
+      <formula>$H1 = "suction blister fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S1000">
+    <cfRule type="expression" dxfId="1" priority="13" stopIfTrue="1">
+      <formula>$H1 = "suction blister fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="14" stopIfTrue="1">
       <formula>$H1 = "saliva"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="15" stopIfTrue="1">
+      <formula>$H1 = "skin biopsy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S1000">
+    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
+      <formula>$H1 = "skin biopsy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:Q1000">
+    <cfRule type="expression" dxfId="0" priority="17" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="1" priority="18" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T1000">
+    <cfRule type="expression" dxfId="1" priority="19" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="20" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="0" priority="11" stopIfTrue="1">
+  <conditionalFormatting sqref="P1:P1000">
+    <cfRule type="expression" dxfId="0" priority="21" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="22" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="1" priority="12" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="0" priority="13" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="14" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="15" stopIfTrue="1">
-      <formula>$H1 = "synovial fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="23" stopIfTrue="1">
       <formula>$H1 = "synovial fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
-      <formula>$H1 = "suction blister cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="18" stopIfTrue="1">
-      <formula>$H1 = "suction blister cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="19" stopIfTrue="1">
-      <formula>$H1 = "skin biopsy"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="20" stopIfTrue="1">
-      <formula>$H1 = "skin biopsy"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="21" stopIfTrue="1">
-      <formula>$H1 = "suction blister fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="22" stopIfTrue="1">
-      <formula>$H1 = "suction blister fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="23" stopIfTrue="1">
-      <formula>$H1 = "skin swab"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
     <cfRule type="expression" dxfId="1" priority="24" stopIfTrue="1">
-      <formula>$H1 = "skin swab"</formula>
+      <formula>$H1 = "synovial fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1000">

--- a/model_templates/ark.BiospecimenMetadataTemplate.xlsx
+++ b/model_templates/ark.BiospecimenMetadataTemplate.xlsx
@@ -32770,124 +32770,124 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="U1:U1000">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>$I1 = "flow-sorted cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J1000">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>$I1 = "flow-sorted cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$I1 = "flow-sorted cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+      <formula>$I1 = "flow-sorted cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U1000">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+      <formula>$I1 = "cell suspension"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$I1 = "cell suspension"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$I1 = "cell suspension"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
-      <formula>$I1 = "flow-sorted cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
-      <formula>$I1 = "flow-sorted cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1000">
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
-      <formula>$I1 = "flow-sorted cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1000">
     <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
+      <formula>$H1 = "suction blister fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S1000">
+    <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
+      <formula>$H1 = "suction blister fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T1000">
+    <cfRule type="expression" dxfId="1" priority="10" stopIfTrue="1">
+      <formula>$H1 = "synovial fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
+      <formula>$H1 = "synovial fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="12" stopIfTrue="1">
+      <formula>$H1 = "saliva"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P1000">
+    <cfRule type="expression" dxfId="0" priority="13" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="14" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="1" priority="15" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:Q1000">
+    <cfRule type="expression" dxfId="0" priority="16" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T1000">
+    <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="18" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="1" priority="19" stopIfTrue="1">
+      <formula>$H1 = "skin biopsy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S1000">
+    <cfRule type="expression" dxfId="1" priority="20" stopIfTrue="1">
+      <formula>$H1 = "skin biopsy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="1" priority="21" stopIfTrue="1">
       <formula>$H1 = "skin swab"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="22" stopIfTrue="1">
       <formula>$H1 = "skin swab"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="23" stopIfTrue="1">
       <formula>$H1 = "suction blister cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="24" stopIfTrue="1">
       <formula>$H1 = "suction blister cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="12" stopIfTrue="1">
-      <formula>$H1 = "suction blister fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="13" stopIfTrue="1">
-      <formula>$H1 = "suction blister fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="14" stopIfTrue="1">
-      <formula>$H1 = "saliva"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="15" stopIfTrue="1">
-      <formula>$H1 = "skin biopsy"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
-      <formula>$H1 = "skin biopsy"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="0" priority="17" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="18" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="1" priority="19" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="20" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="0" priority="21" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="22" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="1" priority="23" stopIfTrue="1">
-      <formula>$H1 = "synovial fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="24" stopIfTrue="1">
-      <formula>$H1 = "synovial fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1000">

--- a/model_templates/ark.BiospecimenMetadataTemplate.xlsx
+++ b/model_templates/ark.BiospecimenMetadataTemplate.xlsx
@@ -32770,124 +32770,124 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="U1:U1000">
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>$I1 = "flow-sorted cells"</formula>
+      <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1000">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>$I1 = "flow-sorted cells"</formula>
+  <conditionalFormatting sqref="U1:U1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$I1 = "cell suspension"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$I1 = "flow-sorted cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1000">
     <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
-      <formula>$I1 = "cell suspension"</formula>
+      <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$I1 = "cell suspension"</formula>
+  <conditionalFormatting sqref="J1:J1000">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
+      <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$I1 = "cell suspension"</formula>
+      <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1000">
     <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
-      <formula>$H1 = "suction blister fluid"</formula>
+      <formula>$H1 = "synovial fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T1000">
+    <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
+      <formula>$H1 = "synovial fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
-      <formula>$H1 = "suction blister fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
     <cfRule type="expression" dxfId="1" priority="10" stopIfTrue="1">
-      <formula>$H1 = "synovial fluid"</formula>
+      <formula>$H1 = "skin swab"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1000">
     <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
-      <formula>$H1 = "synovial fluid"</formula>
+      <formula>$H1 = "skin swab"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
+  <conditionalFormatting sqref="S1:S1000">
     <cfRule type="expression" dxfId="1" priority="12" stopIfTrue="1">
-      <formula>$H1 = "saliva"</formula>
+      <formula>$H1 = "suction blister cells"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="0" priority="13" stopIfTrue="1">
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="1" priority="13" stopIfTrue="1">
+      <formula>$H1 = "suction blister cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S1000">
+    <cfRule type="expression" dxfId="1" priority="14" stopIfTrue="1">
+      <formula>$H1 = "skin biopsy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="1" priority="15" stopIfTrue="1">
+      <formula>$H1 = "skin biopsy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S1000">
+    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
+      <formula>$H1 = "suction blister fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
+      <formula>$H1 = "suction blister fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:Q1000">
+    <cfRule type="expression" dxfId="0" priority="18" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T1000">
+    <cfRule type="expression" dxfId="1" priority="19" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="20" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P1000">
+    <cfRule type="expression" dxfId="0" priority="21" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="15" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="0" priority="16" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="22" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="23" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="19" stopIfTrue="1">
-      <formula>$H1 = "skin biopsy"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="20" stopIfTrue="1">
-      <formula>$H1 = "skin biopsy"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="21" stopIfTrue="1">
-      <formula>$H1 = "skin swab"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="22" stopIfTrue="1">
-      <formula>$H1 = "skin swab"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="23" stopIfTrue="1">
-      <formula>$H1 = "suction blister cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
+  <conditionalFormatting sqref="R1:R1000">
     <cfRule type="expression" dxfId="1" priority="24" stopIfTrue="1">
-      <formula>$H1 = "suction blister cells"</formula>
+      <formula>$H1 = "saliva"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1000">

--- a/model_templates/ark.BiospecimenMetadataTemplate.xlsx
+++ b/model_templates/ark.BiospecimenMetadataTemplate.xlsx
@@ -32770,23 +32770,23 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="U1:U1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
+  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="J1:J1000">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32795,24 +32795,24 @@
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1000">
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
+  <conditionalFormatting sqref="S1:S1000">
     <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
-      <formula>$H1 = "synovial fluid"</formula>
+      <formula>$H1 = "suction blister fluid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
+  <conditionalFormatting sqref="K1:K1000">
     <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
-      <formula>$H1 = "synovial fluid"</formula>
+      <formula>$H1 = "suction blister fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1000">
@@ -32825,52 +32825,52 @@
       <formula>$H1 = "skin swab"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T1000">
+    <cfRule type="expression" dxfId="1" priority="12" stopIfTrue="1">
+      <formula>$H1 = "synovial fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="1" priority="13" stopIfTrue="1">
+      <formula>$H1 = "synovial fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="14" stopIfTrue="1">
+      <formula>$H1 = "saliva"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="15" stopIfTrue="1">
+      <formula>$H1 = "skin biopsy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
+      <formula>$H1 = "skin biopsy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S1000">
+    <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
       <formula>$H1 = "suction blister cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="18" stopIfTrue="1">
       <formula>$H1 = "suction blister cells"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="14" stopIfTrue="1">
-      <formula>$H1 = "skin biopsy"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="15" stopIfTrue="1">
-      <formula>$H1 = "skin biopsy"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
-      <formula>$H1 = "suction blister fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
-      <formula>$H1 = "suction blister fluid"</formula>
+  <conditionalFormatting sqref="P1:P1000">
+    <cfRule type="expression" dxfId="0" priority="19" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="0" priority="18" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="1" priority="19" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="0" priority="20" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="21" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
@@ -32880,14 +32880,14 @@
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="23" stopIfTrue="1">
+  <conditionalFormatting sqref="T1:T1000">
+    <cfRule type="expression" dxfId="1" priority="23" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="24" stopIfTrue="1">
-      <formula>$H1 = "saliva"</formula>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="24" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1000">

--- a/model_templates/ark.BiospecimenMetadataTemplate.xlsx
+++ b/model_templates/ark.BiospecimenMetadataTemplate.xlsx
@@ -32781,59 +32781,59 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>$H1 = "flow-sorted cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$H1 = "flow-sorted cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>$H1 = "flow-sorted cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+      <formula>$H1 = "flow-sorted cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$H1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="U1:U1000">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$H1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$H1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
-      <formula>$H1 = "flow-sorted cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
-      <formula>$H1 = "flow-sorted cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$H1 = "flow-sorted cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$H1 = "flow-sorted cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
+  <conditionalFormatting sqref="S1:S1000">
     <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
-      <formula>$G1 = "saliva"</formula>
+      <formula>$G1 = "suction blister cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1000">
     <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
-      <formula>$G1 = "skin swab"</formula>
+      <formula>$G1 = "suction blister cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1000">
     <cfRule type="expression" dxfId="1" priority="10" stopIfTrue="1">
-      <formula>$G1 = "skin swab"</formula>
+      <formula>$G1 = "suction blister fluid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
+  <conditionalFormatting sqref="K1:K1000">
     <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
-      <formula>$G1 = "synovial tissue"</formula>
+      <formula>$G1 = "suction blister fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1000">
@@ -32841,17 +32841,17 @@
       <formula>$G1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="Q1:Q1000">
     <cfRule type="expression" dxfId="0" priority="13" stopIfTrue="1">
       <formula>$G1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1000">
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="14" stopIfTrue="1">
       <formula>$G1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
+  <conditionalFormatting sqref="T1:T1000">
     <cfRule type="expression" dxfId="1" priority="15" stopIfTrue="1">
       <formula>$G1 = "synovial tissue"</formula>
     </cfRule>
@@ -32863,42 +32863,42 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1000">
     <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
-      <formula>$G1 = "suction blister fluid"</formula>
+      <formula>$G1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
+  <conditionalFormatting sqref="T1:T1000">
     <cfRule type="expression" dxfId="1" priority="18" stopIfTrue="1">
-      <formula>$G1 = "suction blister fluid"</formula>
+      <formula>$G1 = "synovial fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1000">
     <cfRule type="expression" dxfId="1" priority="19" stopIfTrue="1">
-      <formula>$G1 = "skin biopsy"</formula>
+      <formula>$G1 = "synovial fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1000">
     <cfRule type="expression" dxfId="1" priority="20" stopIfTrue="1">
+      <formula>$G1 = "skin swab"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="1" priority="21" stopIfTrue="1">
+      <formula>$G1 = "skin swab"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="22" stopIfTrue="1">
+      <formula>$G1 = "saliva"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S1000">
+    <cfRule type="expression" dxfId="1" priority="23" stopIfTrue="1">
       <formula>$G1 = "skin biopsy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="21" stopIfTrue="1">
-      <formula>$G1 = "synovial fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="1" priority="22" stopIfTrue="1">
-      <formula>$G1 = "synovial fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="23" stopIfTrue="1">
-      <formula>$G1 = "suction blister cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
     <cfRule type="expression" dxfId="1" priority="24" stopIfTrue="1">
-      <formula>$G1 = "suction blister cells"</formula>
+      <formula>$G1 = "skin biopsy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1000">

--- a/model_templates/ark.BiospecimenMetadataTemplate.xlsx
+++ b/model_templates/ark.BiospecimenMetadataTemplate.xlsx
@@ -32781,19 +32781,19 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>$H1 = "cell suspension"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>$H1 = "flow-sorted cells"</formula>
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$H1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$H1 = "flow-sorted cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>$H1 = "flow-sorted cells"</formula>
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$H1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
@@ -32803,112 +32803,112 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
-      <formula>$H1 = "cell suspension"</formula>
+      <formula>$H1 = "flow-sorted cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J1000">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
+      <formula>$H1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$H1 = "cell suspension"</formula>
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
+      <formula>$H1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$H1 = "cell suspension"</formula>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
+      <formula>$G1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
+      <formula>$G1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="10" stopIfTrue="1">
+      <formula>$G1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T1000">
+    <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
+      <formula>$G1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:Q1000">
+    <cfRule type="expression" dxfId="0" priority="12" stopIfTrue="1">
+      <formula>$G1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P1000">
+    <cfRule type="expression" dxfId="0" priority="13" stopIfTrue="1">
+      <formula>$G1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="1" priority="14" stopIfTrue="1">
+      <formula>$G1 = "skin swab"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="15" stopIfTrue="1">
+      <formula>$G1 = "skin swab"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
+      <formula>$G1 = "suction blister fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S1000">
+    <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
+      <formula>$G1 = "suction blister fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="18" stopIfTrue="1">
+      <formula>$G1 = "saliva"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="1" priority="19" stopIfTrue="1">
+      <formula>$G1 = "suction blister cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S1000">
+    <cfRule type="expression" dxfId="1" priority="20" stopIfTrue="1">
       <formula>$G1 = "suction blister cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
-      <formula>$G1 = "suction blister cells"</formula>
+    <cfRule type="expression" dxfId="1" priority="21" stopIfTrue="1">
+      <formula>$G1 = "skin biopsy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="10" stopIfTrue="1">
-      <formula>$G1 = "suction blister fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
-      <formula>$G1 = "suction blister fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="0" priority="12" stopIfTrue="1">
-      <formula>$G1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="0" priority="13" stopIfTrue="1">
-      <formula>$G1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="14" stopIfTrue="1">
-      <formula>$G1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="1" priority="15" stopIfTrue="1">
-      <formula>$G1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="16" stopIfTrue="1">
-      <formula>$G1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
-      <formula>$G1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="1" priority="18" stopIfTrue="1">
-      <formula>$G1 = "synovial fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="19" stopIfTrue="1">
-      <formula>$G1 = "synovial fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="20" stopIfTrue="1">
-      <formula>$G1 = "skin swab"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="21" stopIfTrue="1">
-      <formula>$G1 = "skin swab"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
     <cfRule type="expression" dxfId="1" priority="22" stopIfTrue="1">
-      <formula>$G1 = "saliva"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="23" stopIfTrue="1">
       <formula>$G1 = "skin biopsy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="1" priority="23" stopIfTrue="1">
+      <formula>$G1 = "synovial fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T1000">
     <cfRule type="expression" dxfId="1" priority="24" stopIfTrue="1">
-      <formula>$G1 = "skin biopsy"</formula>
+      <formula>$G1 = "synovial fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1000">
     <cfRule type="expression" dxfId="1" priority="25" stopIfTrue="1">
-      <formula>$B1 = "AMP RA/SLE"</formula>
+      <formula>$B1 = "AMP AIM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1000">
     <cfRule type="expression" dxfId="1" priority="26" stopIfTrue="1">
-      <formula>$B1 = "AMP AIM"</formula>
+      <formula>$B1 = "AMP RA/SLE"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/model_templates/ark.BiospecimenMetadataTemplate.xlsx
+++ b/model_templates/ark.BiospecimenMetadataTemplate.xlsx
@@ -32781,134 +32781,134 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>$H1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
+  <conditionalFormatting sqref="U1:U1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$H1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$H1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$H1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
-      <formula>$H1 = "flow-sorted cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1000">
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$H1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1000">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+      <formula>$H1 = "flow-sorted cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$H1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
+      <formula>$G1 = "suction blister fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S1000">
+    <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
+      <formula>$G1 = "suction blister fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="10" stopIfTrue="1">
+      <formula>$G1 = "saliva"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
+      <formula>$G1 = "skin swab"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S1000">
+    <cfRule type="expression" dxfId="1" priority="12" stopIfTrue="1">
+      <formula>$G1 = "skin swab"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="1" priority="13" stopIfTrue="1">
+      <formula>$G1 = "skin biopsy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S1000">
+    <cfRule type="expression" dxfId="1" priority="14" stopIfTrue="1">
+      <formula>$G1 = "skin biopsy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="1" priority="15" stopIfTrue="1">
+      <formula>$G1 = "synovial fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T1000">
+    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
+      <formula>$G1 = "synovial fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
+      <formula>$G1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T1000">
+    <cfRule type="expression" dxfId="1" priority="18" stopIfTrue="1">
+      <formula>$G1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P1000">
+    <cfRule type="expression" dxfId="0" priority="19" stopIfTrue="1">
+      <formula>$G1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="20" stopIfTrue="1">
+      <formula>$G1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:Q1000">
+    <cfRule type="expression" dxfId="0" priority="21" stopIfTrue="1">
+      <formula>$G1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="22" stopIfTrue="1">
       <formula>$G1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
-      <formula>$G1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="10" stopIfTrue="1">
-      <formula>$G1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
-      <formula>$G1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="0" priority="12" stopIfTrue="1">
-      <formula>$G1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="0" priority="13" stopIfTrue="1">
-      <formula>$G1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="14" stopIfTrue="1">
-      <formula>$G1 = "skin swab"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="15" stopIfTrue="1">
-      <formula>$G1 = "skin swab"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
-      <formula>$G1 = "suction blister fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
-      <formula>$G1 = "suction blister fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="18" stopIfTrue="1">
-      <formula>$G1 = "saliva"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="23" stopIfTrue="1">
       <formula>$G1 = "suction blister cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="24" stopIfTrue="1">
       <formula>$G1 = "suction blister cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="21" stopIfTrue="1">
-      <formula>$G1 = "skin biopsy"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="22" stopIfTrue="1">
-      <formula>$G1 = "skin biopsy"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="23" stopIfTrue="1">
-      <formula>$G1 = "synovial fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="1" priority="24" stopIfTrue="1">
-      <formula>$G1 = "synovial fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1000">
     <cfRule type="expression" dxfId="1" priority="25" stopIfTrue="1">
-      <formula>$B1 = "AMP AIM"</formula>
+      <formula>$B1 = "AMP RA/SLE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1000">
     <cfRule type="expression" dxfId="1" priority="26" stopIfTrue="1">
-      <formula>$B1 = "AMP RA/SLE"</formula>
+      <formula>$B1 = "AMP AIM"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/model_templates/ark.BiospecimenMetadataTemplate.xlsx
+++ b/model_templates/ark.BiospecimenMetadataTemplate.xlsx
@@ -32829,32 +32829,32 @@
       <c r="Y1000" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="W1:W1000">
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>$T1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="W1:W1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$T1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
+  <conditionalFormatting sqref="S1:S1000">
     <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>$T1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
+  <conditionalFormatting sqref="Q1:Q1000">
     <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$T1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1000">
+  <conditionalFormatting sqref="R1:R1000">
     <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$T1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
+  <conditionalFormatting sqref="P1:P1000">
     <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>$T1 = "synovial tissue"</formula>
     </cfRule>
@@ -32864,12 +32864,12 @@
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="X1:X1000">
     <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X1:X1000">
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
@@ -32879,12 +32879,12 @@
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="X1:X1000">
     <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X1:X1000">
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="1" priority="12" stopIfTrue="1">
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
@@ -32894,114 +32894,114 @@
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="14" stopIfTrue="1">
+      <formula>$H1 = "skin swab"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V1:V1000">
+    <cfRule type="expression" dxfId="0" priority="15" stopIfTrue="1">
+      <formula>$H1 = "skin swab"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T1000">
+    <cfRule type="expression" dxfId="0" priority="16" stopIfTrue="1">
+      <formula>$H1 = "primary cell culture"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
+      <formula>$H1 = "primary cell culture"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="1" priority="18" stopIfTrue="1">
+      <formula>$H1 = "primary cell culture"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U1000">
+    <cfRule type="expression" dxfId="0" priority="19" stopIfTrue="1">
+      <formula>$H1 = "saliva"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="20" stopIfTrue="1">
+      <formula>$H1 = "suction blister cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V1:V1000">
+    <cfRule type="expression" dxfId="0" priority="21" stopIfTrue="1">
+      <formula>$H1 = "suction blister cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="1" priority="22" stopIfTrue="1">
+      <formula>$H1 = "cell line"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="1" priority="23" stopIfTrue="1">
+      <formula>$H1 = "cell line"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="24" stopIfTrue="1">
+      <formula>$H1 = "skin biopsy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V1:V1000">
+    <cfRule type="expression" dxfId="0" priority="25" stopIfTrue="1">
+      <formula>$H1 = "skin biopsy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="26" stopIfTrue="1">
+      <formula>$H1 = "suction blister fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V1:V1000">
+    <cfRule type="expression" dxfId="0" priority="27" stopIfTrue="1">
+      <formula>$H1 = "suction blister fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="28" stopIfTrue="1">
+      <formula>$H1 = "synovial fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="W1:W1000">
-    <cfRule type="expression" dxfId="0" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="29" stopIfTrue="1">
+      <formula>$H1 = "synovial fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="30" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="15" stopIfTrue="1">
+  <conditionalFormatting sqref="W1:W1000">
+    <cfRule type="expression" dxfId="0" priority="31" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S1000">
+    <cfRule type="expression" dxfId="1" priority="32" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:Q1000">
+    <cfRule type="expression" dxfId="1" priority="33" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="34" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="35" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="1" priority="18" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="19" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="20" stopIfTrue="1">
-      <formula>$H1 = "suction blister fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V1:V1000">
-    <cfRule type="expression" dxfId="0" priority="21" stopIfTrue="1">
-      <formula>$H1 = "suction blister fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="1" priority="22" stopIfTrue="1">
-      <formula>$H1 = "primary cell culture"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="0" priority="23" stopIfTrue="1">
-      <formula>$H1 = "primary cell culture"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="1" priority="24" stopIfTrue="1">
-      <formula>$H1 = "primary cell culture"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="25" stopIfTrue="1">
-      <formula>$H1 = "skin biopsy"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V1:V1000">
-    <cfRule type="expression" dxfId="0" priority="26" stopIfTrue="1">
-      <formula>$H1 = "skin biopsy"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="27" stopIfTrue="1">
-      <formula>$H1 = "suction blister cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V1:V1000">
-    <cfRule type="expression" dxfId="0" priority="28" stopIfTrue="1">
-      <formula>$H1 = "suction blister cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="0" priority="29" stopIfTrue="1">
-      <formula>$H1 = "saliva"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="30" stopIfTrue="1">
-      <formula>$H1 = "skin swab"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V1:V1000">
-    <cfRule type="expression" dxfId="0" priority="31" stopIfTrue="1">
-      <formula>$H1 = "skin swab"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W1:W1000">
-    <cfRule type="expression" dxfId="0" priority="32" stopIfTrue="1">
-      <formula>$H1 = "synovial fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="33" stopIfTrue="1">
-      <formula>$H1 = "synovial fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="1" priority="34" stopIfTrue="1">
-      <formula>$H1 = "cell line"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="1" priority="35" stopIfTrue="1">
-      <formula>$H1 = "cell line"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1:Y1000">

--- a/model_templates/ark.BiospecimenMetadataTemplate.xlsx
+++ b/model_templates/ark.BiospecimenMetadataTemplate.xlsx
@@ -5514,8 +5514,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEAF7F9"/>
-          <bgColor rgb="FFEAF7F9"/>
+          <fgColor rgb="FFFFFFE5"/>
+          <bgColor rgb="FFFFFFE5"/>
         </patternFill>
       </fill>
       <border/>
@@ -5524,8 +5524,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFE5"/>
-          <bgColor rgb="FFFFFFE5"/>
+          <fgColor rgb="FFEAF7F9"/>
+          <bgColor rgb="FFEAF7F9"/>
         </patternFill>
       </fill>
       <border/>
@@ -32829,188 +32829,188 @@
       <c r="Y1000" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="P1:P1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>$T1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W1:W1000">
+  <conditionalFormatting sqref="R1:R1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$T1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
+  <conditionalFormatting sqref="W1:W1000">
     <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>$T1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="S1:S1000">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$T1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$T1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
+  <conditionalFormatting sqref="Q1:Q1000">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$T1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:X1000">
-    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="1" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="10" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:X1000">
-    <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="11" stopIfTrue="1">
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="1" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="12" stopIfTrue="1">
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="1" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="13" stopIfTrue="1">
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P1000">
+    <cfRule type="expression" dxfId="0" priority="14" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="0" priority="15" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W1:W1000">
+    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S1000">
+    <cfRule type="expression" dxfId="0" priority="17" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="18" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:Q1000">
+    <cfRule type="expression" dxfId="0" priority="19" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="20" stopIfTrue="1">
+      <formula>$H1 = "primary cell culture"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T1000">
+    <cfRule type="expression" dxfId="1" priority="21" stopIfTrue="1">
+      <formula>$H1 = "primary cell culture"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="22" stopIfTrue="1">
+      <formula>$H1 = "primary cell culture"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="23" stopIfTrue="1">
+      <formula>$H1 = "cell line"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="24" stopIfTrue="1">
+      <formula>$H1 = "cell line"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U1000">
+    <cfRule type="expression" dxfId="1" priority="25" stopIfTrue="1">
+      <formula>$H1 = "saliva"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="1" priority="26" stopIfTrue="1">
       <formula>$H1 = "skin swab"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1000">
-    <cfRule type="expression" dxfId="0" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="27" stopIfTrue="1">
       <formula>$H1 = "skin swab"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="0" priority="16" stopIfTrue="1">
-      <formula>$H1 = "primary cell culture"</formula>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="1" priority="28" stopIfTrue="1">
+      <formula>$H1 = "suction blister fluid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
-      <formula>$H1 = "primary cell culture"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="1" priority="18" stopIfTrue="1">
-      <formula>$H1 = "primary cell culture"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="0" priority="19" stopIfTrue="1">
-      <formula>$H1 = "saliva"</formula>
+  <conditionalFormatting sqref="V1:V1000">
+    <cfRule type="expression" dxfId="1" priority="29" stopIfTrue="1">
+      <formula>$H1 = "suction blister fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="30" stopIfTrue="1">
+      <formula>$H1 = "skin biopsy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V1:V1000">
+    <cfRule type="expression" dxfId="1" priority="31" stopIfTrue="1">
+      <formula>$H1 = "skin biopsy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="1" priority="32" stopIfTrue="1">
+      <formula>$H1 = "synovial fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W1:W1000">
+    <cfRule type="expression" dxfId="1" priority="33" stopIfTrue="1">
+      <formula>$H1 = "synovial fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="1" priority="34" stopIfTrue="1">
       <formula>$H1 = "suction blister cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1000">
-    <cfRule type="expression" dxfId="0" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="35" stopIfTrue="1">
       <formula>$H1 = "suction blister cells"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="1" priority="22" stopIfTrue="1">
-      <formula>$H1 = "cell line"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="1" priority="23" stopIfTrue="1">
-      <formula>$H1 = "cell line"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="24" stopIfTrue="1">
-      <formula>$H1 = "skin biopsy"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V1:V1000">
-    <cfRule type="expression" dxfId="0" priority="25" stopIfTrue="1">
-      <formula>$H1 = "skin biopsy"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="26" stopIfTrue="1">
-      <formula>$H1 = "suction blister fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V1:V1000">
-    <cfRule type="expression" dxfId="0" priority="27" stopIfTrue="1">
-      <formula>$H1 = "suction blister fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="28" stopIfTrue="1">
-      <formula>$H1 = "synovial fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W1:W1000">
-    <cfRule type="expression" dxfId="0" priority="29" stopIfTrue="1">
-      <formula>$H1 = "synovial fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="30" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W1:W1000">
-    <cfRule type="expression" dxfId="0" priority="31" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="32" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="1" priority="33" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="34" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="1" priority="35" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="Y1:Y1000">
-    <cfRule type="expression" dxfId="0" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="36" stopIfTrue="1">
       <formula>$B1 = "AMP RA/SLE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1:Y1000">
-    <cfRule type="expression" dxfId="0" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="37" stopIfTrue="1">
       <formula>$B1 = "AMP AIM"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model_templates/ark.BiospecimenMetadataTemplate.xlsx
+++ b/model_templates/ark.BiospecimenMetadataTemplate.xlsx
@@ -5514,8 +5514,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFE5"/>
-          <bgColor rgb="FFFFFFE5"/>
+          <fgColor rgb="FFEAF7F9"/>
+          <bgColor rgb="FFEAF7F9"/>
         </patternFill>
       </fill>
       <border/>
@@ -5524,8 +5524,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEAF7F9"/>
-          <bgColor rgb="FFEAF7F9"/>
+          <fgColor rgb="FFFFFFE5"/>
+          <bgColor rgb="FFFFFFE5"/>
         </patternFill>
       </fill>
       <border/>
@@ -32829,189 +32829,189 @@
       <c r="Y1000" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="P1:P1000">
+  <conditionalFormatting sqref="W1:W1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>$T1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="P1:P1000">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>$T1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W1:W1000">
+  <conditionalFormatting sqref="Q1:Q1000">
     <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>$T1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+      <formula>$T1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$T1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
-      <formula>$T1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1000">
     <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$T1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="X1:X1000">
+    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
+      <formula>$I1 = "flow-sorted cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
+      <formula>$I1 = "flow-sorted cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
+      <formula>$I1 = "flow-sorted cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="10" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:X1000">
-    <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
-      <formula>$I1 = "flow-sorted cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
-      <formula>$I1 = "flow-sorted cells"</formula>
+    <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
+      <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="10" stopIfTrue="1">
-      <formula>$I1 = "flow-sorted cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X1:X1000">
-    <cfRule type="expression" dxfId="0" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="12" stopIfTrue="1">
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="13" stopIfTrue="1">
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="1" priority="14" stopIfTrue="1">
+      <formula>$H1 = "primary cell culture"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="13" stopIfTrue="1">
-      <formula>$I1 = "cell suspension"</formula>
+    <cfRule type="expression" dxfId="1" priority="15" stopIfTrue="1">
+      <formula>$H1 = "primary cell culture"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T1000">
+    <cfRule type="expression" dxfId="0" priority="16" stopIfTrue="1">
+      <formula>$H1 = "primary cell culture"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
+      <formula>$H1 = "cell line"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="1" priority="18" stopIfTrue="1">
+      <formula>$H1 = "cell line"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="19" stopIfTrue="1">
+      <formula>$H1 = "suction blister cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V1:V1000">
+    <cfRule type="expression" dxfId="0" priority="20" stopIfTrue="1">
+      <formula>$H1 = "suction blister cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W1:W1000">
+    <cfRule type="expression" dxfId="0" priority="21" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="0" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="22" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:Q1000">
+    <cfRule type="expression" dxfId="1" priority="23" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S1000">
+    <cfRule type="expression" dxfId="1" priority="24" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="0" priority="15" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W1:W1000">
-    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="0" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="25" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="1" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="26" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="0" priority="19" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="27" stopIfTrue="1">
+      <formula>$H1 = "skin biopsy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="20" stopIfTrue="1">
-      <formula>$H1 = "primary cell culture"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="1" priority="21" stopIfTrue="1">
-      <formula>$H1 = "primary cell culture"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="22" stopIfTrue="1">
-      <formula>$H1 = "primary cell culture"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="23" stopIfTrue="1">
-      <formula>$H1 = "cell line"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="24" stopIfTrue="1">
-      <formula>$H1 = "cell line"</formula>
+  <conditionalFormatting sqref="V1:V1000">
+    <cfRule type="expression" dxfId="0" priority="28" stopIfTrue="1">
+      <formula>$H1 = "skin biopsy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="1" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="29" stopIfTrue="1">
       <formula>$H1 = "saliva"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="1" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="30" stopIfTrue="1">
       <formula>$H1 = "skin swab"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1000">
-    <cfRule type="expression" dxfId="1" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="31" stopIfTrue="1">
       <formula>$H1 = "skin swab"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="1" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="32" stopIfTrue="1">
       <formula>$H1 = "suction blister fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1000">
-    <cfRule type="expression" dxfId="1" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="33" stopIfTrue="1">
       <formula>$H1 = "suction blister fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="1" priority="30" stopIfTrue="1">
-      <formula>$H1 = "skin biopsy"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V1:V1000">
-    <cfRule type="expression" dxfId="1" priority="31" stopIfTrue="1">
-      <formula>$H1 = "skin biopsy"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="1" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="34" stopIfTrue="1">
       <formula>$H1 = "synovial fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1:W1000">
-    <cfRule type="expression" dxfId="1" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="35" stopIfTrue="1">
       <formula>$H1 = "synovial fluid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="1" priority="34" stopIfTrue="1">
-      <formula>$H1 = "suction blister cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V1:V1000">
-    <cfRule type="expression" dxfId="1" priority="35" stopIfTrue="1">
-      <formula>$H1 = "suction blister cells"</formula>
+  <conditionalFormatting sqref="Y1:Y1000">
+    <cfRule type="expression" dxfId="0" priority="36" stopIfTrue="1">
+      <formula>$B1 = "AMP AIM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1:Y1000">
-    <cfRule type="expression" dxfId="1" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="37" stopIfTrue="1">
       <formula>$B1 = "AMP RA/SLE"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y1:Y1000">
-    <cfRule type="expression" dxfId="1" priority="37" stopIfTrue="1">
-      <formula>$B1 = "AMP AIM"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/model_templates/ark.BiospecimenMetadataTemplate.xlsx
+++ b/model_templates/ark.BiospecimenMetadataTemplate.xlsx
@@ -5514,8 +5514,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEAF7F9"/>
-          <bgColor rgb="FFEAF7F9"/>
+          <fgColor rgb="FFFFFFE5"/>
+          <bgColor rgb="FFFFFFE5"/>
         </patternFill>
       </fill>
       <border/>
@@ -5524,8 +5524,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFE5"/>
-          <bgColor rgb="FFFFFFE5"/>
+          <fgColor rgb="FFEAF7F9"/>
+          <bgColor rgb="FFEAF7F9"/>
         </patternFill>
       </fill>
       <border/>
@@ -32829,189 +32829,189 @@
       <c r="Y1000" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="W1:W1000">
+  <conditionalFormatting sqref="R1:R1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>$T1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>$T1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$T1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$T1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$T1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
+  <conditionalFormatting sqref="W1:W1000">
     <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$T1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="P1:P1000">
     <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$T1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
+      <formula>$I1 = "flow-sorted cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="X1:X1000">
-    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
-      <formula>$I1 = "flow-sorted cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="1" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="10" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X1:X1000">
-    <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="11" stopIfTrue="1">
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="1" priority="12" stopIfTrue="1">
+  <conditionalFormatting sqref="X1:X1000">
+    <cfRule type="expression" dxfId="0" priority="12" stopIfTrue="1">
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="1" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="13" stopIfTrue="1">
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="W1:W1000">
     <cfRule type="expression" dxfId="1" priority="14" stopIfTrue="1">
-      <formula>$H1 = "primary cell culture"</formula>
+      <formula>$H1 = "synovial fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="1" priority="15" stopIfTrue="1">
+      <formula>$H1 = "synovial fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V1:V1000">
+    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
+      <formula>$H1 = "suction blister fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
+      <formula>$H1 = "suction blister fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="1" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="18" stopIfTrue="1">
+      <formula>$H1 = "cell line"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="19" stopIfTrue="1">
+      <formula>$H1 = "cell line"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V1:V1000">
+    <cfRule type="expression" dxfId="1" priority="20" stopIfTrue="1">
+      <formula>$H1 = "skin swab"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="1" priority="21" stopIfTrue="1">
+      <formula>$H1 = "skin swab"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U1000">
+    <cfRule type="expression" dxfId="1" priority="22" stopIfTrue="1">
+      <formula>$H1 = "saliva"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="0" priority="23" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:Q1000">
+    <cfRule type="expression" dxfId="0" priority="24" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S1000">
+    <cfRule type="expression" dxfId="0" priority="25" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="1" priority="26" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W1:W1000">
+    <cfRule type="expression" dxfId="1" priority="27" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P1000">
+    <cfRule type="expression" dxfId="0" priority="28" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="29" stopIfTrue="1">
       <formula>$H1 = "primary cell culture"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="0" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="30" stopIfTrue="1">
       <formula>$H1 = "primary cell culture"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
-      <formula>$H1 = "cell line"</formula>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="31" stopIfTrue="1">
+      <formula>$H1 = "primary cell culture"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="1" priority="18" stopIfTrue="1">
-      <formula>$H1 = "cell line"</formula>
+  <conditionalFormatting sqref="V1:V1000">
+    <cfRule type="expression" dxfId="1" priority="32" stopIfTrue="1">
+      <formula>$H1 = "suction blister cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="33" stopIfTrue="1">
       <formula>$H1 = "suction blister cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1000">
-    <cfRule type="expression" dxfId="0" priority="20" stopIfTrue="1">
-      <formula>$H1 = "suction blister cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W1:W1000">
-    <cfRule type="expression" dxfId="0" priority="21" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="1" priority="22" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="1" priority="23" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="24" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="25" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
+    <cfRule type="expression" dxfId="1" priority="34" stopIfTrue="1">
+      <formula>$H1 = "skin biopsy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="26" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="35" stopIfTrue="1">
       <formula>$H1 = "skin biopsy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V1:V1000">
-    <cfRule type="expression" dxfId="0" priority="28" stopIfTrue="1">
-      <formula>$H1 = "skin biopsy"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="0" priority="29" stopIfTrue="1">
-      <formula>$H1 = "saliva"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="30" stopIfTrue="1">
-      <formula>$H1 = "skin swab"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V1:V1000">
-    <cfRule type="expression" dxfId="0" priority="31" stopIfTrue="1">
-      <formula>$H1 = "skin swab"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="32" stopIfTrue="1">
-      <formula>$H1 = "suction blister fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V1:V1000">
-    <cfRule type="expression" dxfId="0" priority="33" stopIfTrue="1">
-      <formula>$H1 = "suction blister fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="34" stopIfTrue="1">
-      <formula>$H1 = "synovial fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W1:W1000">
-    <cfRule type="expression" dxfId="0" priority="35" stopIfTrue="1">
-      <formula>$H1 = "synovial fluid"</formula>
+  <conditionalFormatting sqref="Y1:Y1000">
+    <cfRule type="expression" dxfId="1" priority="36" stopIfTrue="1">
+      <formula>$B1 = "AMP RA/SLE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1:Y1000">
-    <cfRule type="expression" dxfId="0" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="37" stopIfTrue="1">
       <formula>$B1 = "AMP AIM"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y1:Y1000">
-    <cfRule type="expression" dxfId="0" priority="37" stopIfTrue="1">
-      <formula>$B1 = "AMP RA/SLE"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/model_templates/ark.BiospecimenMetadataTemplate.xlsx
+++ b/model_templates/ark.BiospecimenMetadataTemplate.xlsx
@@ -89,7 +89,7 @@
     </comment>
     <comment authorId="0" ref="O1">
       <text>
-        <t xml:space="preserve">A standardized, semi-quantitative measure of the degree of inflammatory infiltrate in synovial specimen. This is one of three measures used to derive the Krenn Synovitis Score (KSS) which is a histological scoring system used to quantify inflammation in synovial tissue biopsies, particularly in the context of inflammatory arthritis like rheumatoid arthritis. If value unknown, use '-1'.</t>
+        <t xml:space="preserve">A standardized, semi-quantitative measure of the degree of inflammatory infiltrate in synovial specimen. This is one of three measures used to derive the Krenn Synovitis Score (KSS) which is a histological scoring system used to quantify inflammation in synovial tissue biopsies, particularly in the context of inflammatory arthritis like rheumatoid arthritis. If value unknown, enter '-1'.</t>
       </text>
     </comment>
     <comment authorId="0" ref="P1">
@@ -99,7 +99,7 @@
     </comment>
     <comment authorId="0" ref="Q1">
       <text>
-        <t xml:space="preserve">A standardized, semi-quantitative measure of stromal cell density of synovial specimen. This is one of three measures used to derive the Krenn Synovitis Score (KSS) which is a histological scoring system used to quantify inflammation in synovial tissue biopsies, particularly in the context of inflammatory arthritis like rheumatoid arthritis. If value unknown, use '-1'.</t>
+        <t xml:space="preserve">A standardized, semi-quantitative measure of stromal cell density of synovial specimen. This is one of three measures used to derive the Krenn Synovitis Score (KSS) which is a histological scoring system used to quantify inflammation in synovial tissue biopsies, particularly in the context of inflammatory arthritis like rheumatoid arthritis. If value unknown, enter '-1'.</t>
       </text>
     </comment>
     <comment authorId="0" ref="R1">
@@ -5509,8 +5509,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFE5"/>
-          <bgColor rgb="FFFFFFE5"/>
+          <fgColor rgb="FFEAF7F9"/>
+          <bgColor rgb="FFEAF7F9"/>
         </patternFill>
       </fill>
       <border/>
@@ -5519,8 +5519,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEAF7F9"/>
-          <bgColor rgb="FFEAF7F9"/>
+          <fgColor rgb="FFFFFFE5"/>
+          <bgColor rgb="FFFFFFE5"/>
         </patternFill>
       </fill>
       <border/>
@@ -32821,189 +32821,189 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="V1:V1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>$S1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>$S1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V1:V1000">
+  <conditionalFormatting sqref="P1:P1000">
     <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>$S1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
+  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$S1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
+  <conditionalFormatting sqref="R1:R1000">
     <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$S1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>$S1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
+      <formula>$I1 = "flow-sorted cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W1:W1000">
+    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
+      <formula>$I1 = "flow-sorted cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
-      <formula>$I1 = "flow-sorted cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W1:W1000">
-    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="10" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="10" stopIfTrue="1">
-      <formula>$I1 = "flow-sorted cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1:W1000">
-    <cfRule type="expression" dxfId="0" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="12" stopIfTrue="1">
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="13" stopIfTrue="1">
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="1" priority="13" stopIfTrue="1">
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U1000">
+    <cfRule type="expression" dxfId="0" priority="14" stopIfTrue="1">
+      <formula>$H1 = "suction blister cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="1" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="15" stopIfTrue="1">
+      <formula>$H1 = "suction blister cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V1:V1000">
+    <cfRule type="expression" dxfId="0" priority="16" stopIfTrue="1">
+      <formula>$H1 = "synovial fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="17" stopIfTrue="1">
+      <formula>$H1 = "synovial fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U1000">
+    <cfRule type="expression" dxfId="0" priority="18" stopIfTrue="1">
+      <formula>$H1 = "suction blister fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="19" stopIfTrue="1">
+      <formula>$H1 = "suction blister fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T1000">
+    <cfRule type="expression" dxfId="0" priority="20" stopIfTrue="1">
+      <formula>$H1 = "saliva"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U1000">
+    <cfRule type="expression" dxfId="0" priority="21" stopIfTrue="1">
+      <formula>$H1 = "skin biopsy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="22" stopIfTrue="1">
       <formula>$H1 = "skin biopsy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="1" priority="15" stopIfTrue="1">
-      <formula>$H1 = "skin biopsy"</formula>
+    <cfRule type="expression" dxfId="0" priority="23" stopIfTrue="1">
+      <formula>$H1 = "skin swab"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
-      <formula>$H1 = "suction blister cells"</formula>
+    <cfRule type="expression" dxfId="0" priority="24" stopIfTrue="1">
+      <formula>$H1 = "skin swab"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
-      <formula>$H1 = "suction blister cells"</formula>
+  <conditionalFormatting sqref="V1:V1000">
+    <cfRule type="expression" dxfId="0" priority="25" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="1" priority="26" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P1000">
+    <cfRule type="expression" dxfId="1" priority="27" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="1" priority="18" stopIfTrue="1">
-      <formula>$H1 = "synovial fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V1:V1000">
-    <cfRule type="expression" dxfId="1" priority="19" stopIfTrue="1">
-      <formula>$H1 = "synovial fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="1" priority="20" stopIfTrue="1">
-      <formula>$H1 = "saliva"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="21" stopIfTrue="1">
-      <formula>$H1 = "cell line"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="22" stopIfTrue="1">
-      <formula>$H1 = "cell line"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="28" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="0" priority="24" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V1:V1000">
-    <cfRule type="expression" dxfId="1" priority="25" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="0" priority="26" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="1" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="29" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="0" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="30" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="1" priority="29" stopIfTrue="1">
-      <formula>$H1 = "suction blister fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="1" priority="30" stopIfTrue="1">
-      <formula>$H1 = "suction blister fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
+  <conditionalFormatting sqref="S1:S1000">
     <cfRule type="expression" dxfId="0" priority="31" stopIfTrue="1">
       <formula>$H1 = "primary cell culture"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="32" stopIfTrue="1">
       <formula>$H1 = "primary cell culture"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="1" priority="33" stopIfTrue="1">
       <formula>$H1 = "primary cell culture"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="1" priority="34" stopIfTrue="1">
-      <formula>$H1 = "skin swab"</formula>
+      <formula>$H1 = "cell line"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="1" priority="35" stopIfTrue="1">
-      <formula>$H1 = "skin swab"</formula>
+      <formula>$H1 = "cell line"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:X1000">
-    <cfRule type="expression" dxfId="1" priority="36" stopIfTrue="1">
-      <formula>$B1 = "AMP RA/SLE"</formula>
+    <cfRule type="expression" dxfId="0" priority="36" stopIfTrue="1">
+      <formula>$B1 = "AMP AIM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:X1000">
-    <cfRule type="expression" dxfId="1" priority="37" stopIfTrue="1">
-      <formula>$B1 = "AMP AIM"</formula>
+    <cfRule type="expression" dxfId="0" priority="37" stopIfTrue="1">
+      <formula>$B1 = "AMP RA/SLE"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
